--- a/doc/需求分析.xlsx
+++ b/doc/需求分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需求矩阵" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
   <si>
     <t>华行研学管理系统需求分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -458,6 +458,14 @@
   </si>
   <si>
     <t>会员等级与累计充值有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每批储蓄卡都有统一的有效时期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1050,7 +1058,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1211,6 +1219,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1519,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1528,6 +1539,7 @@
     <col min="1" max="1" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="88.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="14" customFormat="1" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1578,7 +1590,9 @@
       <c r="C3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
@@ -1691,7 +1705,9 @@
       <c r="C8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="59" t="s">
+        <v>100</v>
+      </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -1745,7 +1761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
